--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56605.08544493221</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56605.08544493221</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959819175.0718118</v>
+        <v>40161043.95934013</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8754.802890152072</v>
+        <v>995670.2515908219</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16179.9237315503</v>
+        <v>1782780.901798693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23605.04457294853</v>
+        <v>2569891.552006566</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31051.5917994095</v>
+        <v>3357002.202214438</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38498.13902587046</v>
+        <v>4144112.85242231</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45943.93209922799</v>
+        <v>4931186.083799602</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53390.25278017759</v>
+        <v>5718296.734007471</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60836.49173358164</v>
+        <v>6505407.384215339</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68282.55608722924</v>
+        <v>7292518.034423208</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75728.87676817884</v>
+        <v>8079628.684631077</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83174.94112182641</v>
+        <v>8866739.334838951</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90621.26180277602</v>
+        <v>9653849.985046828</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98067.50075618004</v>
+        <v>10440960.63525471</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105513.7397095841</v>
+        <v>11228071.28546258</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>112959.8040632316</v>
+        <v>12015181.93567046</v>
       </c>
     </row>
   </sheetData>
